--- a/miniprojet1.2/concour/lsi_ci_students.xlsx
+++ b/miniprojet1.2/concour/lsi_ci_students.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Full Name</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>LSI</t>
+  </si>
+  <si>
+    <t>elgorrim.mohamed@etu.uae.ac.ma</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +462,32 @@
         <v>12.57</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>12.69</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprojet1.2/concour/lsi_ci_students.xlsx
+++ b/miniprojet1.2/concour/lsi_ci_students.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\miniprojet1.2\concour\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC675BB-C990-4D70-B32F-1DF4F64203B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$5:$H$352</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Full Name</t>
   </si>
@@ -44,10 +52,10 @@
     <t>EL GORRIM MOHAMED</t>
   </si>
   <si>
-    <t>L641100</t>
-  </si>
-  <si>
-    <t>P100074548</t>
+    <t>L641101</t>
+  </si>
+  <si>
+    <t>P100074547</t>
   </si>
   <si>
     <t>moonxedition@gmail.com</t>
@@ -56,29 +64,77 @@
     <t>0644246223</t>
   </si>
   <si>
-    <t>MSD</t>
+    <t>I</t>
   </si>
   <si>
     <t>LSI</t>
   </si>
   <si>
-    <t>elgorrim.mohamed@etu.uae.ac.ma</t>
+    <t>L895637</t>
+  </si>
+  <si>
+    <t>P708487957</t>
+  </si>
+  <si>
+    <t>student1@example.com</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>L895638</t>
+  </si>
+  <si>
+    <t>P708487958</t>
+  </si>
+  <si>
+    <t>L895639</t>
+  </si>
+  <si>
+    <t>P708487959</t>
+  </si>
+  <si>
+    <t>student2@example.com</t>
+  </si>
+  <si>
+    <t>student3@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,17 +154,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,19 +466,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -459,10 +529,10 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>12.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -473,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -488,9 +558,2049 @@
         <v>12.69</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>681676827</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>681676828</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>681676829</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="2"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="2"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="2"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="2"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="2"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="2"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="2"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="2"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="2"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="2"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="2"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="2"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="2"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="2"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="2"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="2"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="2"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="2"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="2"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="2"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="2"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="2"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="2"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="2"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="2"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="2"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="2"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="2"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="2"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="2"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="2"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="2"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="2"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="2"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="2"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="2"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="2"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="2"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="2"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="2"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="2"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="2"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="2"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="2"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="2"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="2"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="2"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="2"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="2"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="2"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="2"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="2"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="2"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="2"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="2"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="2"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="2"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="2"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="2"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="2"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="2"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="2"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="2"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="2"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="2"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="2"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="2"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="2"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="2"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="2"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="2"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="2"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="2"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="2"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="2"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="2"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="2"/>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="2"/>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="2"/>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="2"/>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="2"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="2"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="2"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="2"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="2"/>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="2"/>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="2"/>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="2"/>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="2"/>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="2"/>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="2"/>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="2"/>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="2"/>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="2"/>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="2"/>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="2"/>
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="2"/>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="2"/>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="2"/>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="2"/>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="2"/>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="2"/>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="2"/>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="2"/>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="2"/>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="2"/>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="2"/>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="2"/>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="2"/>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="2"/>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="2"/>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="2"/>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="2"/>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="2"/>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="2"/>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="2"/>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="2"/>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="2"/>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="2"/>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="2"/>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="2"/>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="2"/>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="2"/>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="2"/>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="2"/>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="2"/>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="2"/>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="2"/>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="2"/>
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="2"/>
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="2"/>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="2"/>
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="2"/>
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="2"/>
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="2"/>
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="2"/>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="2"/>
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="2"/>
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="2"/>
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="2"/>
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="2"/>
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="2"/>
+      <c r="G292" s="1"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="2"/>
+      <c r="G294" s="1"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="2"/>
+      <c r="G295" s="1"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="G296" s="1"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="2"/>
+      <c r="G297" s="1"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="2"/>
+      <c r="G298" s="1"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="G299" s="1"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="2"/>
+      <c r="G300" s="1"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="2"/>
+      <c r="G301" s="1"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="G302" s="1"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="2"/>
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="2"/>
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="2"/>
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="2"/>
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="2"/>
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="2"/>
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="G311" s="1"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="2"/>
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="2"/>
+      <c r="G313" s="1"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="2"/>
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="2"/>
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="2"/>
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="2"/>
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="2"/>
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="2"/>
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="G323" s="1"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="2"/>
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="2"/>
+      <c r="G325" s="1"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="G326" s="1"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="2"/>
+      <c r="G327" s="1"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="2"/>
+      <c r="G328" s="1"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="G329" s="1"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="2"/>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="2"/>
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="2"/>
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="2"/>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="2"/>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="2"/>
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="G338" s="1"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="2"/>
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="2"/>
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="G341" s="1"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="2"/>
+      <c r="G342" s="1"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="2"/>
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="2"/>
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="2"/>
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="2"/>
+      <c r="G348" s="1"/>
+    </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{09F05CEE-6157-4B07-BA61-C96D72999D4E}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{E81B082E-7CFE-4C5C-87AA-E4053D359E4C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>